--- a/observations/orbit_plans/mtp076/nomad_mtp076_plan_generic.xlsx
+++ b/observations/orbit_plans/mtp076/nomad_mtp076_plan_generic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\orbit_plans\mtp076\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F639EE5-6A11-4F39-A8A7-FD989A2F744D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CB6FF0-84A7-43E8-8192-097D4485DF77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="539">
   <si>
     <t>#orbitType</t>
   </si>
@@ -1631,6 +1631,12 @@
   </si>
   <si>
     <t>Fullscan fast step4 all #1</t>
+  </si>
+  <si>
+    <t>CO Fullscan Fast #2</t>
+  </si>
+  <si>
+    <t>LNO CO Fullscan Fast #1</t>
   </si>
 </sst>
 </file>
@@ -1993,8 +1999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N341"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
-      <selection activeCell="B259" sqref="B259"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2072,10 +2078,10 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>538</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>538</v>
       </c>
       <c r="G3" t="s">
         <v>6</v>
@@ -2118,10 +2124,10 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>538</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>538</v>
       </c>
       <c r="G5" t="s">
         <v>6</v>
@@ -2167,10 +2173,10 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>537</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>537</v>
       </c>
       <c r="G7" t="s">
         <v>6</v>
@@ -2199,10 +2205,10 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>537</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>537</v>
       </c>
       <c r="G8" t="s">
         <v>6</v>
